--- a/EvaluationResults/RQ1/Baseline1-DD-1%-result.xlsx
+++ b/EvaluationResults/RQ1/Baseline1-DD-1%-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia WorkSpace/serverless misconfiguration/LLM新方法设计/AllCode/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A9A44-E8B6-B14D-853C-7DBFE87E9E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF6075-2535-B94B-B79F-6A00099B50D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="-20960" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J116" sqref="J116:J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -3246,7 +3246,8 @@
         <v>1</v>
       </c>
       <c r="J40" s="4">
-        <v>0</v>
+        <f>H40-I40</f>
+        <v>1</v>
       </c>
       <c r="K40" s="6">
         <v>3</v>
@@ -6147,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="4">
-        <f t="shared" ref="J106:J111" si="7">H106-I106</f>
+        <f t="shared" ref="J106:J110" si="7">H106-I106</f>
         <v>2</v>
       </c>
       <c r="K106" s="6">
@@ -6367,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="4">
-        <f t="shared" si="7"/>
+        <f>H111-I111</f>
         <v>0</v>
       </c>
       <c r="K111" s="6">
@@ -6401,7 +6402,7 @@
       </c>
       <c r="J112" s="4">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K112" s="4">
         <f t="shared" si="8"/>
@@ -6439,7 +6440,7 @@
       </c>
       <c r="J117" s="1">
         <f>I112/(I112+J112)</f>
-        <v>0.70684039087947881</v>
+        <v>0.70454545454545459</v>
       </c>
     </row>
     <row r="118" spans="9:12" ht="18" customHeight="1">
@@ -6448,7 +6449,7 @@
       </c>
       <c r="J118" s="1">
         <f>2*((J116*J117)/(J116+J117))</f>
-        <v>0.29766803840877915</v>
+        <v>0.29746401644962306</v>
       </c>
     </row>
     <row r="119" spans="9:12" ht="18" customHeight="1">
@@ -6457,7 +6458,7 @@
       </c>
       <c r="J119" s="1">
         <f>(I112+L112)/(I112+J112+K112+L112)</f>
-        <v>0.76806342015855045</v>
+        <v>0.76788949275362317</v>
       </c>
     </row>
   </sheetData>
